--- a/mageproductcsv/resources/bra-mixer.xlsx
+++ b/mageproductcsv/resources/bra-mixer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
@@ -519,9 +519,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -562,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,10 +896,13 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
